--- a/template/[Cxx2xG1]_DailyReport_AccountName.xlsx
+++ b/template/[Cxx2xG1]_DailyReport_AccountName.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="133">
   <si>
     <t>No</t>
   </si>
@@ -698,19 +698,16 @@
     <t>[Perform Blackbox TC] Other. Quên mật khẩu</t>
   </si>
   <si>
-    <t>Kick off</t>
-  </si>
-  <si>
     <t>Interview Question</t>
   </si>
   <si>
-    <t>[Create Database] Project Technology Store</t>
-  </si>
-  <si>
-    <t>[Login] Project Technology Store</t>
-  </si>
-  <si>
-    <t>[Home] Project Technology Store</t>
+    <t>Interview Question + Presentation</t>
+  </si>
+  <si>
+    <t>[Project Technology Store] Day 3</t>
+  </si>
+  <si>
+    <t>[Project Technology Store] Day 2</t>
   </si>
 </sst>
 </file>
@@ -1166,6 +1163,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1173,12 +1176,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1501,7 +1498,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3126,7 +3123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:I27"/>
     </sheetView>
   </sheetViews>
@@ -3182,14 +3179,14 @@
       <c r="C9" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="88" t="s">
+      <c r="D9" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="89"/>
-      <c r="F9" s="88" t="s">
+      <c r="E9" s="91"/>
+      <c r="F9" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="89"/>
+      <c r="G9" s="91"/>
       <c r="H9" s="70" t="s">
         <v>14</v>
       </c>
@@ -3203,10 +3200,10 @@
       </c>
       <c r="B10" s="61"/>
       <c r="C10" s="72"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="91"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="89"/>
       <c r="H10" s="72"/>
       <c r="I10" s="73"/>
     </row>
@@ -3216,10 +3213,10 @@
       </c>
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="91"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="89"/>
       <c r="H11" s="74"/>
       <c r="I11" s="73"/>
     </row>
@@ -3229,10 +3226,10 @@
       </c>
       <c r="B12" s="61"/>
       <c r="C12" s="61"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="91"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="89"/>
       <c r="H12" s="74"/>
       <c r="I12" s="73"/>
     </row>
@@ -3242,10 +3239,10 @@
       </c>
       <c r="B13" s="61"/>
       <c r="C13" s="61"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="91"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="89"/>
       <c r="H13" s="74"/>
       <c r="I13" s="75"/>
     </row>
@@ -3305,7 +3302,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="61" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C18" s="79">
         <v>45111</v>
@@ -3314,7 +3311,7 @@
         <v>45111</v>
       </c>
       <c r="E18" s="81" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F18" s="73"/>
     </row>
@@ -3322,14 +3319,10 @@
       <c r="A19" s="80">
         <v>3</v>
       </c>
-      <c r="B19" s="61" t="s">
-        <v>131</v>
-      </c>
+      <c r="B19" s="61"/>
       <c r="C19" s="79"/>
       <c r="D19" s="79"/>
-      <c r="E19" s="81" t="s">
-        <v>114</v>
-      </c>
+      <c r="E19" s="81"/>
       <c r="F19" s="73"/>
     </row>
     <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3375,7 +3368,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="61" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C24" s="79">
         <v>45111</v>
@@ -3387,7 +3380,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="61" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C25" s="79">
         <v>45111</v>
@@ -3398,7 +3391,6 @@
       <c r="A26" s="78">
         <v>3</v>
       </c>
-      <c r="B26" s="61"/>
       <c r="C26" s="79"/>
       <c r="D26" s="73"/>
     </row>
@@ -3449,14 +3441,14 @@
       <c r="C67" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="D67" s="88" t="s">
+      <c r="D67" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="E67" s="89"/>
-      <c r="F67" s="88" t="s">
+      <c r="E67" s="91"/>
+      <c r="F67" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="G67" s="89"/>
+      <c r="G67" s="91"/>
       <c r="H67" s="70" t="s">
         <v>14</v>
       </c>
@@ -3470,10 +3462,10 @@
       </c>
       <c r="B68" s="61"/>
       <c r="C68" s="72"/>
-      <c r="D68" s="90"/>
-      <c r="E68" s="91"/>
-      <c r="F68" s="90"/>
-      <c r="G68" s="91"/>
+      <c r="D68" s="92"/>
+      <c r="E68" s="89"/>
+      <c r="F68" s="92"/>
+      <c r="G68" s="89"/>
       <c r="H68" s="72"/>
       <c r="I68" s="73"/>
     </row>
@@ -3483,10 +3475,10 @@
       </c>
       <c r="B69" s="61"/>
       <c r="C69" s="61"/>
-      <c r="D69" s="92"/>
-      <c r="E69" s="91"/>
-      <c r="F69" s="92"/>
-      <c r="G69" s="91"/>
+      <c r="D69" s="88"/>
+      <c r="E69" s="89"/>
+      <c r="F69" s="88"/>
+      <c r="G69" s="89"/>
       <c r="H69" s="74"/>
       <c r="I69" s="73"/>
     </row>
@@ -3496,10 +3488,10 @@
       </c>
       <c r="B70" s="61"/>
       <c r="C70" s="61"/>
-      <c r="D70" s="92"/>
-      <c r="E70" s="91"/>
-      <c r="F70" s="92"/>
-      <c r="G70" s="91"/>
+      <c r="D70" s="88"/>
+      <c r="E70" s="89"/>
+      <c r="F70" s="88"/>
+      <c r="G70" s="89"/>
       <c r="H70" s="74"/>
       <c r="I70" s="73"/>
     </row>
@@ -3509,10 +3501,10 @@
       </c>
       <c r="B71" s="61"/>
       <c r="C71" s="61"/>
-      <c r="D71" s="92"/>
-      <c r="E71" s="91"/>
-      <c r="F71" s="92"/>
-      <c r="G71" s="91"/>
+      <c r="D71" s="88"/>
+      <c r="E71" s="89"/>
+      <c r="F71" s="88"/>
+      <c r="G71" s="89"/>
       <c r="H71" s="74"/>
       <c r="I71" s="75"/>
     </row>
@@ -3735,6 +3727,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
     <mergeCell ref="D70:E70"/>
     <mergeCell ref="F70:G70"/>
     <mergeCell ref="D71:E71"/>
@@ -3745,16 +3747,6 @@
     <mergeCell ref="F68:G68"/>
     <mergeCell ref="D69:E69"/>
     <mergeCell ref="F69:G69"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E72">

--- a/template/[Cxx2xG1]_DailyReport_AccountName.xlsx
+++ b/template/[Cxx2xG1]_DailyReport_AccountName.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="135">
   <si>
     <t>No</t>
   </si>
@@ -701,13 +701,19 @@
     <t>Interview Question</t>
   </si>
   <si>
+    <t>[Project Technology Store] Day 7</t>
+  </si>
+  <si>
+    <t>24/04/2023</t>
+  </si>
+  <si>
+    <t>[Project Technology Store] Day 8</t>
+  </si>
+  <si>
     <t>Interview Question + Presentation</t>
   </si>
   <si>
-    <t>[Project Technology Store] Day 3</t>
-  </si>
-  <si>
-    <t>[Project Technology Store] Day 2</t>
+    <t>25/04/2023</t>
   </si>
 </sst>
 </file>
@@ -1731,7 +1737,7 @@
       </c>
       <c r="G16" s="86"/>
     </row>
-    <row r="21" spans="3:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
     </row>
   </sheetData>
@@ -1898,7 +1904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="9"/>
       <c r="C10" s="6"/>
@@ -1907,12 +1913,12 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>0</v>
       </c>
@@ -1971,7 +1977,7 @@
       <c r="F14" s="48"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="9"/>
       <c r="C15" s="6"/>
@@ -2275,7 +2281,7 @@
       </c>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>0</v>
       </c>
@@ -2313,7 +2319,7 @@
       </c>
       <c r="G18" s="86"/>
     </row>
-    <row r="23" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
     </row>
   </sheetData>
@@ -2569,7 +2575,7 @@
       </c>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>0</v>
       </c>
@@ -2607,7 +2613,7 @@
       </c>
       <c r="G18" s="86"/>
     </row>
-    <row r="23" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
     </row>
   </sheetData>
@@ -2743,7 +2749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>0</v>
       </c>
@@ -2802,7 +2808,7 @@
       <c r="F12" s="58"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="9"/>
       <c r="C13" s="6"/>
@@ -2811,13 +2817,13 @@
       <c r="F13" s="87"/>
       <c r="G13" s="87"/>
     </row>
-    <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>0</v>
       </c>
@@ -2991,7 +2997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>0</v>
       </c>
@@ -3050,7 +3056,7 @@
       <c r="F12" s="55"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="9"/>
       <c r="C13" s="6"/>
@@ -3059,13 +3065,13 @@
       <c r="F13" s="87"/>
       <c r="G13" s="87"/>
     </row>
-    <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>0</v>
       </c>
@@ -3123,7 +3129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:I27"/>
     </sheetView>
   </sheetViews>
@@ -3286,11 +3292,11 @@
       <c r="B17" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="79">
-        <v>45111</v>
-      </c>
-      <c r="D17" s="79">
-        <v>45111</v>
+      <c r="C17" s="79" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="79" t="s">
+        <v>131</v>
       </c>
       <c r="E17" s="81" t="s">
         <v>112</v>
@@ -3302,16 +3308,16 @@
         <v>2</v>
       </c>
       <c r="B18" s="61" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" s="79">
-        <v>45111</v>
-      </c>
-      <c r="D18" s="79">
-        <v>45111</v>
+        <v>130</v>
+      </c>
+      <c r="C18" s="79" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="79" t="s">
+        <v>131</v>
       </c>
       <c r="E18" s="81" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F18" s="73"/>
     </row>
@@ -3368,10 +3374,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="61" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" s="79">
-        <v>45111</v>
+        <v>132</v>
+      </c>
+      <c r="C24" s="79" t="s">
+        <v>134</v>
       </c>
       <c r="D24" s="73"/>
     </row>
@@ -3380,10 +3386,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="61" t="s">
-        <v>130</v>
-      </c>
-      <c r="C25" s="79">
-        <v>45111</v>
+        <v>133</v>
+      </c>
+      <c r="C25" s="79" t="s">
+        <v>134</v>
       </c>
       <c r="D25" s="73"/>
     </row>
@@ -3957,18 +3963,18 @@
       </c>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="28"/>
       <c r="F14" s="83"/>
       <c r="G14" s="83"/>
     </row>
-    <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>0</v>
       </c>
@@ -4326,7 +4332,7 @@
       <c r="F18" s="23"/>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="9"/>
       <c r="C19" s="6"/>
@@ -4335,13 +4341,13 @@
       <c r="F19" s="87"/>
       <c r="G19" s="87"/>
     </row>
-    <row r="20" spans="1:7" ht="21" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>0</v>
       </c>
@@ -4379,7 +4385,7 @@
       </c>
       <c r="G22" s="86"/>
     </row>
-    <row r="27" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
     </row>
   </sheetData>
@@ -4653,13 +4659,13 @@
       <c r="F16" s="87"/>
       <c r="G16" s="87"/>
     </row>
-    <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>0</v>
       </c>
@@ -4697,7 +4703,7 @@
       </c>
       <c r="G19" s="86"/>
     </row>
-    <row r="24" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
     </row>
   </sheetData>
@@ -4966,13 +4972,13 @@
       <c r="F16" s="87"/>
       <c r="G16" s="87"/>
     </row>
-    <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>0</v>
       </c>
@@ -5010,7 +5016,7 @@
       </c>
       <c r="G19" s="86"/>
     </row>
-    <row r="24" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
     </row>
   </sheetData>
@@ -5188,7 +5194,7 @@
       </c>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="9"/>
       <c r="C12" s="6"/>
@@ -5197,13 +5203,13 @@
       <c r="F12" s="87"/>
       <c r="G12" s="87"/>
     </row>
-    <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>0</v>
       </c>
@@ -5222,7 +5228,7 @@
       </c>
       <c r="G14" s="84"/>
     </row>
-    <row r="15" spans="1:7" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="33"/>
       <c r="C15" s="34"/>
@@ -5400,7 +5406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="9"/>
       <c r="C10" s="6"/>
@@ -5409,12 +5415,12 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>0</v>
       </c>
@@ -5477,7 +5483,7 @@
       </c>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="9"/>
       <c r="C15" s="6"/>
@@ -5642,7 +5648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="9"/>
       <c r="C8" s="6"/>
@@ -5651,12 +5657,12 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>0</v>
       </c>
@@ -5740,7 +5746,7 @@
       </c>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="9"/>
       <c r="C14" s="6"/>
@@ -6005,7 +6011,7 @@
       </c>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="9"/>
       <c r="C14" s="6"/>
@@ -6014,13 +6020,13 @@
       <c r="F14" s="87"/>
       <c r="G14" s="87"/>
     </row>
-    <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>0</v>
       </c>

--- a/template/[Cxx2xG1]_DailyReport_AccountName.xlsx
+++ b/template/[Cxx2xG1]_DailyReport_AccountName.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="134">
   <si>
     <t>No</t>
   </si>
@@ -701,19 +701,16 @@
     <t>Interview Question</t>
   </si>
   <si>
-    <t>[Project Technology Store] Day 7</t>
-  </si>
-  <si>
-    <t>24/04/2023</t>
-  </si>
-  <si>
-    <t>[Project Technology Store] Day 8</t>
-  </si>
-  <si>
-    <t>Interview Question + Presentation</t>
-  </si>
-  <si>
-    <t>25/04/2023</t>
+    <t>26/04/2023</t>
+  </si>
+  <si>
+    <t>27/04/2023</t>
+  </si>
+  <si>
+    <t>[Project Technology Store] Day 10</t>
+  </si>
+  <si>
+    <t>[Project Technology Store] Day 11</t>
   </si>
 </sst>
 </file>
@@ -1169,19 +1166,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1504,7 +1501,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3129,7 +3126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:I27"/>
     </sheetView>
   </sheetViews>
@@ -3185,14 +3182,14 @@
       <c r="C9" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="90" t="s">
+      <c r="D9" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="91"/>
-      <c r="F9" s="90" t="s">
+      <c r="E9" s="89"/>
+      <c r="F9" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="91"/>
+      <c r="G9" s="89"/>
       <c r="H9" s="70" t="s">
         <v>14</v>
       </c>
@@ -3206,10 +3203,10 @@
       </c>
       <c r="B10" s="61"/>
       <c r="C10" s="72"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="89"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="91"/>
       <c r="H10" s="72"/>
       <c r="I10" s="73"/>
     </row>
@@ -3219,10 +3216,10 @@
       </c>
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="89"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="91"/>
       <c r="H11" s="74"/>
       <c r="I11" s="73"/>
     </row>
@@ -3232,10 +3229,10 @@
       </c>
       <c r="B12" s="61"/>
       <c r="C12" s="61"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="89"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="91"/>
       <c r="H12" s="74"/>
       <c r="I12" s="73"/>
     </row>
@@ -3245,10 +3242,10 @@
       </c>
       <c r="B13" s="61"/>
       <c r="C13" s="61"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="89"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="91"/>
       <c r="H13" s="74"/>
       <c r="I13" s="75"/>
     </row>
@@ -3293,10 +3290,10 @@
         <v>129</v>
       </c>
       <c r="C17" s="79" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D17" s="79" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E17" s="81" t="s">
         <v>112</v>
@@ -3308,13 +3305,13 @@
         <v>2</v>
       </c>
       <c r="B18" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="C18" s="79" t="s">
-        <v>131</v>
-      </c>
       <c r="D18" s="79" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E18" s="81" t="s">
         <v>112</v>
@@ -3374,10 +3371,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="61" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C24" s="79" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D24" s="73"/>
     </row>
@@ -3386,10 +3383,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="61" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C25" s="79" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D25" s="73"/>
     </row>
@@ -3447,14 +3444,14 @@
       <c r="C67" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="D67" s="90" t="s">
+      <c r="D67" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="E67" s="91"/>
-      <c r="F67" s="90" t="s">
+      <c r="E67" s="89"/>
+      <c r="F67" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="G67" s="91"/>
+      <c r="G67" s="89"/>
       <c r="H67" s="70" t="s">
         <v>14</v>
       </c>
@@ -3468,10 +3465,10 @@
       </c>
       <c r="B68" s="61"/>
       <c r="C68" s="72"/>
-      <c r="D68" s="92"/>
-      <c r="E68" s="89"/>
-      <c r="F68" s="92"/>
-      <c r="G68" s="89"/>
+      <c r="D68" s="90"/>
+      <c r="E68" s="91"/>
+      <c r="F68" s="90"/>
+      <c r="G68" s="91"/>
       <c r="H68" s="72"/>
       <c r="I68" s="73"/>
     </row>
@@ -3481,10 +3478,10 @@
       </c>
       <c r="B69" s="61"/>
       <c r="C69" s="61"/>
-      <c r="D69" s="88"/>
-      <c r="E69" s="89"/>
-      <c r="F69" s="88"/>
-      <c r="G69" s="89"/>
+      <c r="D69" s="92"/>
+      <c r="E69" s="91"/>
+      <c r="F69" s="92"/>
+      <c r="G69" s="91"/>
       <c r="H69" s="74"/>
       <c r="I69" s="73"/>
     </row>
@@ -3494,10 +3491,10 @@
       </c>
       <c r="B70" s="61"/>
       <c r="C70" s="61"/>
-      <c r="D70" s="88"/>
-      <c r="E70" s="89"/>
-      <c r="F70" s="88"/>
-      <c r="G70" s="89"/>
+      <c r="D70" s="92"/>
+      <c r="E70" s="91"/>
+      <c r="F70" s="92"/>
+      <c r="G70" s="91"/>
       <c r="H70" s="74"/>
       <c r="I70" s="73"/>
     </row>
@@ -3507,10 +3504,10 @@
       </c>
       <c r="B71" s="61"/>
       <c r="C71" s="61"/>
-      <c r="D71" s="88"/>
-      <c r="E71" s="89"/>
-      <c r="F71" s="88"/>
-      <c r="G71" s="89"/>
+      <c r="D71" s="92"/>
+      <c r="E71" s="91"/>
+      <c r="F71" s="92"/>
+      <c r="G71" s="91"/>
       <c r="H71" s="74"/>
       <c r="I71" s="75"/>
     </row>
@@ -3733,16 +3730,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
     <mergeCell ref="D70:E70"/>
     <mergeCell ref="F70:G70"/>
     <mergeCell ref="D71:E71"/>
@@ -3753,6 +3740,16 @@
     <mergeCell ref="F68:G68"/>
     <mergeCell ref="D69:E69"/>
     <mergeCell ref="F69:G69"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E72">

--- a/template/[Cxx2xG1]_DailyReport_AccountName.xlsx
+++ b/template/[Cxx2xG1]_DailyReport_AccountName.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="132">
   <si>
     <t>No</t>
   </si>
@@ -701,16 +701,10 @@
     <t>Interview Question</t>
   </si>
   <si>
-    <t>26/04/2023</t>
-  </si>
-  <si>
-    <t>27/04/2023</t>
-  </si>
-  <si>
-    <t>[Project Technology Store] Day 10</t>
-  </si>
-  <si>
-    <t>[Project Technology Store] Day 11</t>
+    <t>[Project Technology Store] Day 13</t>
+  </si>
+  <si>
+    <t>[Project Technology Store] Day 14</t>
   </si>
 </sst>
 </file>
@@ -1166,6 +1160,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1173,12 +1173,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1501,7 +1495,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3126,7 +3120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:I27"/>
     </sheetView>
   </sheetViews>
@@ -3182,14 +3176,14 @@
       <c r="C9" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="88" t="s">
+      <c r="D9" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="89"/>
-      <c r="F9" s="88" t="s">
+      <c r="E9" s="91"/>
+      <c r="F9" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="89"/>
+      <c r="G9" s="91"/>
       <c r="H9" s="70" t="s">
         <v>14</v>
       </c>
@@ -3203,10 +3197,10 @@
       </c>
       <c r="B10" s="61"/>
       <c r="C10" s="72"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="91"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="89"/>
       <c r="H10" s="72"/>
       <c r="I10" s="73"/>
     </row>
@@ -3216,10 +3210,10 @@
       </c>
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="91"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="89"/>
       <c r="H11" s="74"/>
       <c r="I11" s="73"/>
     </row>
@@ -3229,10 +3223,10 @@
       </c>
       <c r="B12" s="61"/>
       <c r="C12" s="61"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="91"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="89"/>
       <c r="H12" s="74"/>
       <c r="I12" s="73"/>
     </row>
@@ -3242,14 +3236,14 @@
       </c>
       <c r="B13" s="61"/>
       <c r="C13" s="61"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="91"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="89"/>
       <c r="H13" s="74"/>
       <c r="I13" s="75"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="66"/>
       <c r="C14" s="67"/>
@@ -3257,7 +3251,7 @@
       <c r="E14" s="69"/>
       <c r="F14" s="69"/>
     </row>
-    <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>111</v>
       </c>
@@ -3287,13 +3281,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="D17" s="79" t="s">
-        <v>130</v>
+      <c r="C17" s="79">
+        <v>45021</v>
+      </c>
+      <c r="D17" s="79">
+        <v>45021</v>
       </c>
       <c r="E17" s="81" t="s">
         <v>112</v>
@@ -3305,13 +3299,13 @@
         <v>2</v>
       </c>
       <c r="B18" s="61" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" s="79" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" s="79" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="C18" s="79">
+        <v>45021</v>
+      </c>
+      <c r="D18" s="79">
+        <v>45021</v>
       </c>
       <c r="E18" s="81" t="s">
         <v>112</v>
@@ -3371,10 +3365,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="C24" s="79" t="s">
         <v>131</v>
+      </c>
+      <c r="C24" s="79">
+        <v>45021</v>
       </c>
       <c r="D24" s="73"/>
     </row>
@@ -3385,8 +3379,8 @@
       <c r="B25" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="79" t="s">
-        <v>131</v>
+      <c r="C25" s="79">
+        <v>45051</v>
       </c>
       <c r="D25" s="73"/>
     </row>
@@ -3444,14 +3438,14 @@
       <c r="C67" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="D67" s="88" t="s">
+      <c r="D67" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="E67" s="89"/>
-      <c r="F67" s="88" t="s">
+      <c r="E67" s="91"/>
+      <c r="F67" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="G67" s="89"/>
+      <c r="G67" s="91"/>
       <c r="H67" s="70" t="s">
         <v>14</v>
       </c>
@@ -3465,10 +3459,10 @@
       </c>
       <c r="B68" s="61"/>
       <c r="C68" s="72"/>
-      <c r="D68" s="90"/>
-      <c r="E68" s="91"/>
-      <c r="F68" s="90"/>
-      <c r="G68" s="91"/>
+      <c r="D68" s="92"/>
+      <c r="E68" s="89"/>
+      <c r="F68" s="92"/>
+      <c r="G68" s="89"/>
       <c r="H68" s="72"/>
       <c r="I68" s="73"/>
     </row>
@@ -3478,10 +3472,10 @@
       </c>
       <c r="B69" s="61"/>
       <c r="C69" s="61"/>
-      <c r="D69" s="92"/>
-      <c r="E69" s="91"/>
-      <c r="F69" s="92"/>
-      <c r="G69" s="91"/>
+      <c r="D69" s="88"/>
+      <c r="E69" s="89"/>
+      <c r="F69" s="88"/>
+      <c r="G69" s="89"/>
       <c r="H69" s="74"/>
       <c r="I69" s="73"/>
     </row>
@@ -3491,10 +3485,10 @@
       </c>
       <c r="B70" s="61"/>
       <c r="C70" s="61"/>
-      <c r="D70" s="92"/>
-      <c r="E70" s="91"/>
-      <c r="F70" s="92"/>
-      <c r="G70" s="91"/>
+      <c r="D70" s="88"/>
+      <c r="E70" s="89"/>
+      <c r="F70" s="88"/>
+      <c r="G70" s="89"/>
       <c r="H70" s="74"/>
       <c r="I70" s="73"/>
     </row>
@@ -3504,10 +3498,10 @@
       </c>
       <c r="B71" s="61"/>
       <c r="C71" s="61"/>
-      <c r="D71" s="92"/>
-      <c r="E71" s="91"/>
-      <c r="F71" s="92"/>
-      <c r="G71" s="91"/>
+      <c r="D71" s="88"/>
+      <c r="E71" s="89"/>
+      <c r="F71" s="88"/>
+      <c r="G71" s="89"/>
       <c r="H71" s="74"/>
       <c r="I71" s="75"/>
     </row>
@@ -3730,6 +3724,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
     <mergeCell ref="D70:E70"/>
     <mergeCell ref="F70:G70"/>
     <mergeCell ref="D71:E71"/>
@@ -3740,16 +3744,6 @@
     <mergeCell ref="F68:G68"/>
     <mergeCell ref="D69:E69"/>
     <mergeCell ref="F69:G69"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E72">

--- a/template/[Cxx2xG1]_DailyReport_AccountName.xlsx
+++ b/template/[Cxx2xG1]_DailyReport_AccountName.xlsx
@@ -701,10 +701,10 @@
     <t>Interview Question</t>
   </si>
   <si>
-    <t>[Project Technology Store] Day 13</t>
-  </si>
-  <si>
-    <t>[Project Technology Store] Day 14</t>
+    <t>[Project Technology Store] Day 15</t>
+  </si>
+  <si>
+    <t>[Project Technology Store] Day 16</t>
   </si>
 </sst>
 </file>
@@ -3284,10 +3284,10 @@
         <v>130</v>
       </c>
       <c r="C17" s="79">
-        <v>45021</v>
+        <v>45056</v>
       </c>
       <c r="D17" s="79">
-        <v>45021</v>
+        <v>45056</v>
       </c>
       <c r="E17" s="81" t="s">
         <v>112</v>
@@ -3302,10 +3302,10 @@
         <v>129</v>
       </c>
       <c r="C18" s="79">
-        <v>45021</v>
+        <v>45056</v>
       </c>
       <c r="D18" s="79">
-        <v>45021</v>
+        <v>45056</v>
       </c>
       <c r="E18" s="81" t="s">
         <v>112</v>
@@ -3368,7 +3368,7 @@
         <v>131</v>
       </c>
       <c r="C24" s="79">
-        <v>45021</v>
+        <v>45057</v>
       </c>
       <c r="D24" s="73"/>
     </row>
@@ -3380,7 +3380,7 @@
         <v>129</v>
       </c>
       <c r="C25" s="79">
-        <v>45051</v>
+        <v>45057</v>
       </c>
       <c r="D25" s="73"/>
     </row>

--- a/template/[Cxx2xG1]_DailyReport_AccountName.xlsx
+++ b/template/[Cxx2xG1]_DailyReport_AccountName.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="133">
   <si>
     <t>No</t>
   </si>
@@ -701,10 +701,13 @@
     <t>Interview Question</t>
   </si>
   <si>
-    <t>[Project Technology Store] Day 15</t>
-  </si>
-  <si>
     <t>[Project Technology Store] Day 16</t>
+  </si>
+  <si>
+    <t>Check Quality Sprint 2</t>
+  </si>
+  <si>
+    <t>Audit Sprint 2</t>
   </si>
 </sst>
 </file>
@@ -838,7 +841,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -900,6 +903,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -907,7 +923,7 @@
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1073,9 +1089,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1160,21 +1173,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1495,7 +1518,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1682,8 +1705,8 @@
     <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="27"/>
       <c r="B13" s="28"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
     </row>
     <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.5">
       <c r="A14" s="4" t="s">
@@ -1700,14 +1723,14 @@
       <c r="C15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="84" t="s">
+      <c r="D15" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84" t="s">
+      <c r="E15" s="83"/>
+      <c r="F15" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="84"/>
+      <c r="G15" s="83"/>
     </row>
     <row r="16" spans="1:7" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
@@ -1719,14 +1742,14 @@
       <c r="C16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="85" t="s">
+      <c r="D16" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="85"/>
-      <c r="F16" s="86" t="s">
+      <c r="E16" s="84"/>
+      <c r="F16" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="86"/>
+      <c r="G16" s="85"/>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
@@ -1974,8 +1997,8 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
     </row>
     <row r="16" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
@@ -1993,14 +2016,14 @@
       <c r="C17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="84" t="s">
+      <c r="D17" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84" t="s">
+      <c r="E17" s="83"/>
+      <c r="F17" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="84"/>
+      <c r="G17" s="83"/>
     </row>
     <row r="18" spans="1:7" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
@@ -2012,14 +2035,14 @@
       <c r="C18" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="85" t="s">
+      <c r="D18" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="85"/>
-      <c r="F18" s="86" t="s">
+      <c r="E18" s="84"/>
+      <c r="F18" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="86"/>
+      <c r="G18" s="85"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
@@ -2263,8 +2286,8 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
     </row>
     <row r="16" spans="1:7" ht="21" x14ac:dyDescent="0.5">
       <c r="A16" s="4" t="s">
@@ -2282,14 +2305,14 @@
       <c r="C17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="84" t="s">
+      <c r="D17" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84" t="s">
+      <c r="E17" s="83"/>
+      <c r="F17" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="84"/>
+      <c r="G17" s="83"/>
     </row>
     <row r="18" spans="1:7" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
@@ -2301,14 +2324,14 @@
       <c r="C18" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="85" t="s">
+      <c r="D18" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="85"/>
-      <c r="F18" s="86" t="s">
+      <c r="E18" s="84"/>
+      <c r="F18" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="86"/>
+      <c r="G18" s="85"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
@@ -2557,8 +2580,8 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
     </row>
     <row r="16" spans="1:7" ht="21" x14ac:dyDescent="0.5">
       <c r="A16" s="4" t="s">
@@ -2576,14 +2599,14 @@
       <c r="C17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="84" t="s">
+      <c r="D17" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84" t="s">
+      <c r="E17" s="83"/>
+      <c r="F17" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="84"/>
+      <c r="G17" s="83"/>
     </row>
     <row r="18" spans="1:7" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
@@ -2595,14 +2618,14 @@
       <c r="C18" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="85" t="s">
+      <c r="D18" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="85"/>
-      <c r="F18" s="86" t="s">
+      <c r="E18" s="84"/>
+      <c r="F18" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="86"/>
+      <c r="G18" s="85"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
@@ -2805,8 +2828,8 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
     </row>
     <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
@@ -2824,14 +2847,14 @@
       <c r="C15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="84" t="s">
+      <c r="D15" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84" t="s">
+      <c r="E15" s="83"/>
+      <c r="F15" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="84"/>
+      <c r="G15" s="83"/>
     </row>
     <row r="16" spans="1:7" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
@@ -2843,14 +2866,14 @@
       <c r="C16" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="85" t="s">
+      <c r="D16" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="85"/>
-      <c r="F16" s="86" t="s">
+      <c r="E16" s="84"/>
+      <c r="F16" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="86"/>
+      <c r="G16" s="85"/>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
@@ -3053,8 +3076,8 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
     </row>
     <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
@@ -3072,14 +3095,14 @@
       <c r="C15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="84" t="s">
+      <c r="D15" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84" t="s">
+      <c r="E15" s="83"/>
+      <c r="F15" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="84"/>
+      <c r="G15" s="83"/>
     </row>
     <row r="16" spans="1:7" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
@@ -3091,14 +3114,14 @@
       <c r="C16" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="85" t="s">
+      <c r="D16" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="85"/>
-      <c r="F16" s="86" t="s">
+      <c r="E16" s="84"/>
+      <c r="F16" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="86"/>
+      <c r="G16" s="85"/>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
@@ -3120,7 +3143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:I27"/>
     </sheetView>
   </sheetViews>
@@ -3138,26 +3161,26 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="75" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="76" t="s">
+      <c r="E5" s="75" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="76" t="s">
         <v>118</v>
       </c>
-      <c r="E6" s="76" t="s">
+      <c r="E6" s="75" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3167,89 +3190,89 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="90" t="s">
+      <c r="D9" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="91"/>
-      <c r="F9" s="90" t="s">
+      <c r="E9" s="88"/>
+      <c r="F9" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="91"/>
-      <c r="H9" s="70" t="s">
+      <c r="G9" s="88"/>
+      <c r="H9" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="71" t="s">
+      <c r="I9" s="70" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="60">
-        <v>1</v>
-      </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="73"/>
+      <c r="A10" s="59">
+        <v>1</v>
+      </c>
+      <c r="B10" s="60"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="72"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="60">
+      <c r="A11" s="59">
         <v>2</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="73"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="72"/>
     </row>
     <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="60">
+      <c r="A12" s="59">
         <v>3</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="73"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="72"/>
     </row>
     <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="60">
+      <c r="A13" s="59">
         <v>4</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="75"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="74"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
     </row>
     <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
@@ -3257,89 +3280,89 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="71" t="s">
+      <c r="D16" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="70" t="s">
+      <c r="E16" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="71" t="s">
+      <c r="F16" s="70" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="78">
-        <v>1</v>
-      </c>
-      <c r="B17" s="61" t="s">
+      <c r="A17" s="77">
+        <v>1</v>
+      </c>
+      <c r="B17" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="C17" s="79">
-        <v>45056</v>
-      </c>
-      <c r="D17" s="79">
-        <v>45056</v>
-      </c>
-      <c r="E17" s="81" t="s">
+      <c r="C17" s="93">
+        <v>45057</v>
+      </c>
+      <c r="D17" s="93">
+        <v>45057</v>
+      </c>
+      <c r="E17" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="F17" s="73"/>
+      <c r="F17" s="72"/>
     </row>
     <row r="18" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="78">
+      <c r="A18" s="77">
         <v>2</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="79">
-        <v>45056</v>
-      </c>
-      <c r="D18" s="79">
-        <v>45056</v>
-      </c>
-      <c r="E18" s="81" t="s">
+      <c r="C18" s="93">
+        <v>45057</v>
+      </c>
+      <c r="D18" s="93">
+        <v>45057</v>
+      </c>
+      <c r="E18" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="73"/>
+      <c r="F18" s="72"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="80">
+      <c r="A19" s="79">
         <v>3</v>
       </c>
-      <c r="B19" s="61"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="73"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="72"/>
     </row>
     <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="80">
+      <c r="A20" s="79">
         <v>4</v>
       </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="73"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="72"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="63"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="62"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="65"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="64"/>
     </row>
     <row r="22" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
@@ -3347,79 +3370,80 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="71" t="s">
+      <c r="D23" s="70" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="59">
-        <v>1</v>
-      </c>
-      <c r="B24" s="61" t="s">
+      <c r="A24" s="92">
+        <v>1</v>
+      </c>
+      <c r="B24" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="C24" s="79">
-        <v>45057</v>
-      </c>
-      <c r="D24" s="73"/>
+      <c r="C24" s="93">
+        <v>45058</v>
+      </c>
+      <c r="D24" s="72"/>
     </row>
     <row r="25" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="78">
+      <c r="A25" s="92">
         <v>2</v>
       </c>
-      <c r="B25" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25" s="79">
-        <v>45057</v>
-      </c>
-      <c r="D25" s="73"/>
+      <c r="B25" s="95" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="93">
+        <v>45058</v>
+      </c>
+      <c r="D25" s="72"/>
     </row>
     <row r="26" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="78">
+      <c r="A26" s="92">
         <v>3</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="73"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="72"/>
     </row>
     <row r="27" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="82">
+      <c r="A27" s="81">
         <v>4</v>
       </c>
-      <c r="B27" s="61"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="73"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="72"/>
     </row>
     <row r="62" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D62" s="77" t="s">
+      <c r="D62" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="E62" s="76" t="s">
+      <c r="E62" s="75" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="63" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D63" s="77" t="s">
+      <c r="D63" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="E63" s="76" t="s">
+      <c r="E63" s="75" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="64" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D64" s="77" t="s">
+      <c r="D64" s="76" t="s">
         <v>118</v>
       </c>
-      <c r="E64" s="76" t="s">
+      <c r="E64" s="75" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3429,89 +3453,89 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="70" t="s">
+      <c r="A67" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="70" t="s">
+      <c r="B67" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C67" s="70" t="s">
+      <c r="C67" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="D67" s="90" t="s">
+      <c r="D67" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="E67" s="91"/>
-      <c r="F67" s="90" t="s">
+      <c r="E67" s="88"/>
+      <c r="F67" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="G67" s="91"/>
-      <c r="H67" s="70" t="s">
+      <c r="G67" s="88"/>
+      <c r="H67" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="I67" s="71" t="s">
+      <c r="I67" s="70" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="82">
-        <v>1</v>
-      </c>
-      <c r="B68" s="61"/>
-      <c r="C68" s="72"/>
-      <c r="D68" s="92"/>
-      <c r="E68" s="89"/>
-      <c r="F68" s="92"/>
-      <c r="G68" s="89"/>
-      <c r="H68" s="72"/>
-      <c r="I68" s="73"/>
+      <c r="A68" s="81">
+        <v>1</v>
+      </c>
+      <c r="B68" s="60"/>
+      <c r="C68" s="71"/>
+      <c r="D68" s="89"/>
+      <c r="E68" s="90"/>
+      <c r="F68" s="89"/>
+      <c r="G68" s="90"/>
+      <c r="H68" s="71"/>
+      <c r="I68" s="72"/>
     </row>
     <row r="69" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="82">
+      <c r="A69" s="81">
         <v>2</v>
       </c>
-      <c r="B69" s="61"/>
-      <c r="C69" s="61"/>
-      <c r="D69" s="88"/>
-      <c r="E69" s="89"/>
-      <c r="F69" s="88"/>
-      <c r="G69" s="89"/>
-      <c r="H69" s="74"/>
-      <c r="I69" s="73"/>
+      <c r="B69" s="60"/>
+      <c r="C69" s="60"/>
+      <c r="D69" s="91"/>
+      <c r="E69" s="90"/>
+      <c r="F69" s="91"/>
+      <c r="G69" s="90"/>
+      <c r="H69" s="73"/>
+      <c r="I69" s="72"/>
     </row>
     <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="82">
+      <c r="A70" s="81">
         <v>3</v>
       </c>
-      <c r="B70" s="61"/>
-      <c r="C70" s="61"/>
-      <c r="D70" s="88"/>
-      <c r="E70" s="89"/>
-      <c r="F70" s="88"/>
-      <c r="G70" s="89"/>
-      <c r="H70" s="74"/>
-      <c r="I70" s="73"/>
+      <c r="B70" s="60"/>
+      <c r="C70" s="60"/>
+      <c r="D70" s="91"/>
+      <c r="E70" s="90"/>
+      <c r="F70" s="91"/>
+      <c r="G70" s="90"/>
+      <c r="H70" s="73"/>
+      <c r="I70" s="72"/>
     </row>
     <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="82">
+      <c r="A71" s="81">
         <v>4</v>
       </c>
-      <c r="B71" s="61"/>
-      <c r="C71" s="61"/>
-      <c r="D71" s="88"/>
-      <c r="E71" s="89"/>
-      <c r="F71" s="88"/>
-      <c r="G71" s="89"/>
-      <c r="H71" s="74"/>
-      <c r="I71" s="75"/>
+      <c r="B71" s="60"/>
+      <c r="C71" s="60"/>
+      <c r="D71" s="91"/>
+      <c r="E71" s="90"/>
+      <c r="F71" s="91"/>
+      <c r="G71" s="90"/>
+      <c r="H71" s="73"/>
+      <c r="I71" s="74"/>
     </row>
     <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
-      <c r="B72" s="66"/>
-      <c r="C72" s="67"/>
-      <c r="D72" s="68"/>
-      <c r="E72" s="69"/>
-      <c r="F72" s="69"/>
+      <c r="B72" s="65"/>
+      <c r="C72" s="66"/>
+      <c r="D72" s="67"/>
+      <c r="E72" s="68"/>
+      <c r="F72" s="68"/>
     </row>
     <row r="73" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
@@ -3519,141 +3543,141 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="71" t="s">
+      <c r="A74" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="71" t="s">
+      <c r="B74" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="71" t="s">
+      <c r="C74" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="D74" s="71" t="s">
+      <c r="D74" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="E74" s="70" t="s">
+      <c r="E74" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="F74" s="71" t="s">
+      <c r="F74" s="70" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="82">
-        <v>1</v>
-      </c>
-      <c r="B75" s="61" t="s">
+      <c r="A75" s="81">
+        <v>1</v>
+      </c>
+      <c r="B75" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="C75" s="79">
+      <c r="C75" s="78">
         <v>45019</v>
       </c>
-      <c r="D75" s="79">
+      <c r="D75" s="78">
         <v>45019</v>
       </c>
-      <c r="E75" s="81" t="s">
+      <c r="E75" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="F75" s="73"/>
+      <c r="F75" s="72"/>
     </row>
     <row r="76" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="82">
+      <c r="A76" s="81">
         <v>2</v>
       </c>
-      <c r="B76" s="61" t="s">
+      <c r="B76" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="C76" s="79">
+      <c r="C76" s="78">
         <v>45019</v>
       </c>
-      <c r="D76" s="79">
+      <c r="D76" s="78">
         <v>45019</v>
       </c>
-      <c r="E76" s="81" t="s">
+      <c r="E76" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="F76" s="73"/>
+      <c r="F76" s="72"/>
     </row>
     <row r="77" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="82">
+      <c r="A77" s="81">
         <v>3</v>
       </c>
-      <c r="B77" s="61" t="s">
+      <c r="B77" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="C77" s="79">
+      <c r="C77" s="78">
         <v>45020</v>
       </c>
-      <c r="D77" s="79">
+      <c r="D77" s="78">
         <v>45020</v>
       </c>
-      <c r="E77" s="81" t="s">
+      <c r="E77" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="F77" s="73"/>
+      <c r="F77" s="72"/>
     </row>
     <row r="78" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="82">
+      <c r="A78" s="81">
         <v>4</v>
       </c>
-      <c r="B78" s="61" t="s">
+      <c r="B78" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="C78" s="79">
+      <c r="C78" s="78">
         <v>45020</v>
       </c>
-      <c r="D78" s="79">
+      <c r="D78" s="78">
         <v>45020</v>
       </c>
-      <c r="E78" s="81" t="s">
+      <c r="E78" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="F78" s="73"/>
+      <c r="F78" s="72"/>
     </row>
     <row r="79" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="82">
+      <c r="A79" s="81">
         <v>5</v>
       </c>
-      <c r="B79" s="61" t="s">
+      <c r="B79" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="C79" s="79">
+      <c r="C79" s="78">
         <v>45020</v>
       </c>
-      <c r="D79" s="79">
+      <c r="D79" s="78">
         <v>45020</v>
       </c>
-      <c r="E79" s="81" t="s">
+      <c r="E79" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="F79" s="73"/>
+      <c r="F79" s="72"/>
     </row>
     <row r="80" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="82">
+      <c r="A80" s="81">
         <v>6</v>
       </c>
-      <c r="B80" s="61" t="s">
+      <c r="B80" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="C80" s="79">
+      <c r="C80" s="78">
         <v>45020</v>
       </c>
-      <c r="D80" s="79">
+      <c r="D80" s="78">
         <v>45020</v>
       </c>
-      <c r="E80" s="81" t="s">
+      <c r="E80" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="F80" s="75"/>
+      <c r="F80" s="74"/>
     </row>
     <row r="81" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
-      <c r="B81" s="62"/>
-      <c r="C81" s="63"/>
+      <c r="B81" s="61"/>
+      <c r="C81" s="62"/>
       <c r="D81" s="11"/>
-      <c r="E81" s="64"/>
-      <c r="F81" s="64"/>
-      <c r="G81" s="65"/>
+      <c r="E81" s="63"/>
+      <c r="F81" s="63"/>
+      <c r="G81" s="64"/>
     </row>
     <row r="82" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
@@ -3661,79 +3685,69 @@
       </c>
     </row>
     <row r="83" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="71" t="s">
+      <c r="A83" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B83" s="71" t="s">
+      <c r="B83" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C83" s="71" t="s">
+      <c r="C83" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="D83" s="71" t="s">
+      <c r="D83" s="70" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="82">
-        <v>1</v>
-      </c>
-      <c r="B84" s="61" t="s">
+      <c r="A84" s="81">
+        <v>1</v>
+      </c>
+      <c r="B84" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="C84" s="79">
+      <c r="C84" s="78">
         <v>45020</v>
       </c>
-      <c r="D84" s="73"/>
+      <c r="D84" s="72"/>
     </row>
     <row r="85" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="82">
+      <c r="A85" s="81">
         <v>2</v>
       </c>
-      <c r="B85" s="61" t="s">
+      <c r="B85" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="C85" s="79">
+      <c r="C85" s="78">
         <v>45020</v>
       </c>
-      <c r="D85" s="73"/>
+      <c r="D85" s="72"/>
     </row>
     <row r="86" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="82">
+      <c r="A86" s="81">
         <v>3</v>
       </c>
-      <c r="B86" s="61" t="s">
+      <c r="B86" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="C86" s="79">
+      <c r="C86" s="78">
         <v>45050</v>
       </c>
-      <c r="D86" s="73"/>
+      <c r="D86" s="72"/>
     </row>
     <row r="87" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="82">
+      <c r="A87" s="81">
         <v>4</v>
       </c>
-      <c r="B87" s="61" t="s">
+      <c r="B87" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="C87" s="79">
+      <c r="C87" s="78">
         <v>45050</v>
       </c>
-      <c r="D87" s="73"/>
+      <c r="D87" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
     <mergeCell ref="D70:E70"/>
     <mergeCell ref="F70:G70"/>
     <mergeCell ref="D71:E71"/>
@@ -3744,6 +3758,16 @@
     <mergeCell ref="F68:G68"/>
     <mergeCell ref="D69:E69"/>
     <mergeCell ref="F69:G69"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E72">
@@ -3957,8 +3981,8 @@
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="28"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
     </row>
     <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
@@ -3975,14 +3999,14 @@
       <c r="C16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="84" t="s">
+      <c r="D16" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84" t="s">
+      <c r="E16" s="83"/>
+      <c r="F16" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="84"/>
+      <c r="G16" s="83"/>
     </row>
     <row r="17" spans="1:7" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
@@ -3994,14 +4018,14 @@
       <c r="C17" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="85" t="s">
+      <c r="D17" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="85"/>
-      <c r="F17" s="86" t="s">
+      <c r="E17" s="84"/>
+      <c r="F17" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="86"/>
+      <c r="G17" s="85"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
@@ -4329,8 +4353,8 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
     </row>
     <row r="20" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
@@ -4348,14 +4372,14 @@
       <c r="C21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="84" t="s">
+      <c r="D21" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84" t="s">
+      <c r="E21" s="83"/>
+      <c r="F21" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="84"/>
+      <c r="G21" s="83"/>
     </row>
     <row r="22" spans="1:7" s="21" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
@@ -4367,14 +4391,14 @@
       <c r="C22" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="85" t="s">
+      <c r="D22" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="85"/>
-      <c r="F22" s="86" t="s">
+      <c r="E22" s="84"/>
+      <c r="F22" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="86"/>
+      <c r="G22" s="85"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
@@ -4647,8 +4671,8 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
     </row>
     <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
@@ -4666,14 +4690,14 @@
       <c r="C18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="84" t="s">
+      <c r="D18" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84" t="s">
+      <c r="E18" s="83"/>
+      <c r="F18" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="84"/>
+      <c r="G18" s="83"/>
     </row>
     <row r="19" spans="1:7" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
@@ -4685,14 +4709,14 @@
       <c r="C19" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="85" t="s">
+      <c r="D19" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="85"/>
-      <c r="F19" s="86" t="s">
+      <c r="E19" s="84"/>
+      <c r="F19" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="86"/>
+      <c r="G19" s="85"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
@@ -4960,8 +4984,8 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
     </row>
     <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
@@ -4979,14 +5003,14 @@
       <c r="C18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="84" t="s">
+      <c r="D18" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84" t="s">
+      <c r="E18" s="83"/>
+      <c r="F18" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="84"/>
+      <c r="G18" s="83"/>
     </row>
     <row r="19" spans="1:7" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
@@ -4998,14 +5022,14 @@
       <c r="C19" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="85" t="s">
+      <c r="D19" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="85"/>
-      <c r="F19" s="86" t="s">
+      <c r="E19" s="84"/>
+      <c r="F19" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="86"/>
+      <c r="G19" s="85"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
@@ -5191,8 +5215,8 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
     </row>
     <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
@@ -5210,23 +5234,23 @@
       <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="84" t="s">
+      <c r="D14" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84" t="s">
+      <c r="E14" s="83"/>
+      <c r="F14" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="84"/>
+      <c r="G14" s="83"/>
     </row>
     <row r="15" spans="1:7" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="33"/>
       <c r="C15" s="34"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
@@ -5480,8 +5504,8 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
     </row>
     <row r="16" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
@@ -5499,23 +5523,23 @@
       <c r="C17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="84" t="s">
+      <c r="D17" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84" t="s">
+      <c r="E17" s="83"/>
+      <c r="F17" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="84"/>
+      <c r="G17" s="83"/>
     </row>
     <row r="18" spans="1:7" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="33"/>
       <c r="C18" s="36"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
@@ -5743,8 +5767,8 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
     </row>
     <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
@@ -5762,23 +5786,23 @@
       <c r="C16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="84" t="s">
+      <c r="D16" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84" t="s">
+      <c r="E16" s="83"/>
+      <c r="F16" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="84"/>
+      <c r="G16" s="83"/>
     </row>
     <row r="17" spans="1:7" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="33"/>
       <c r="C17" s="38"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
@@ -6008,8 +6032,8 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
     </row>
     <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
@@ -6027,14 +6051,14 @@
       <c r="C16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="84" t="s">
+      <c r="D16" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84" t="s">
+      <c r="E16" s="83"/>
+      <c r="F16" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="84"/>
+      <c r="G16" s="83"/>
     </row>
     <row r="17" spans="1:7" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
@@ -6046,14 +6070,14 @@
       <c r="C17" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="85" t="s">
+      <c r="D17" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="85"/>
-      <c r="F17" s="86" t="s">
+      <c r="E17" s="84"/>
+      <c r="F17" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="86"/>
+      <c r="G17" s="85"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
